--- a/experiment result cnn/1024_0.8_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/1024_0.8_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01918410197464495</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002305038250497587</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0001400739855105687</v>
+        <v>0.0006808039975450692</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005943530628653581</v>
+        <v>0.001973354249750054</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001546570565208126</v>
+        <v>0.001082403968839712</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0002603378288885152</v>
+        <v>0.0003405779966477818</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001200399999891115</v>
+        <v>0.0004404199988193126</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004449140846622062</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.04432698054322804</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0009228008611790782</v>
+        <v>0.0006609139950278088</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01383615428436105</v>
+        <v>0.0004608899921873783</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.001848417399789546</v>
+        <v>0.0001400979999038255</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00220821501371291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04786894862248741</v>
+        <v>0.009774089534250272</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03942867695384263</v>
+        <v>0.01253629548714516</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02165041409123245</v>
+        <v>0.0007013459879233178</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003190456126817724</v>
+        <v>0.004947247097670572</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04864141724599972</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02440020505398019</v>
+        <v>0.0002601499998325757</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.000799919863942e-05</v>
+        <v>0.05580150971803152</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01013320074623827</v>
+        <v>0.004648854021496675</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01034331812773566</v>
+        <v>0.0008015559834620047</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02396930611885597</v>
+        <v>0.01327423603047382</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.006143271320512282</v>
+        <v>0.000100049999974975</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006224848683641459</v>
+        <v>0.0001200399999891115</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01859162033559125</v>
+        <v>0.01402343038052274</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0002400759865621112</v>
+        <v>0.0003202519995741342</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.009425039702448072</v>
+        <v>0.0004204179988020433</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.007958795626464765</v>
+        <v>0.001490370909454899</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01119558342198997</v>
+        <v>0.0004408839921879786</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0003204517713014866</v>
+        <v>6.000599999987997e-05</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.007566101552339994</v>
+        <v>0.0008635298744821991</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.007904605855734414</v>
+        <v>0.004135861865632058</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003262769085252108</v>
+        <v>0.04812476590745967</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001600519899698957</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.003641512743458837</v>
+        <v>0.0001600999999037854</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.008737067610721266</v>
+        <v>0.0002801719998518832</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.00319999897518e-05</v>
+        <v>0.0004602619997101069</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0003004495448076446</v>
+        <v>0.0008026119323266071</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.001690128902579476</v>
+        <v>0.0002803919984590513</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05978308203188406</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.002981892746131982</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01981696263332267</v>
+        <v>0.0001801299998358576</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.01297139065621781</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.004893539108429776</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.001023627360987458</v>
+        <v>0.02349430216136788</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.004203478397251435</v>
+        <v>0.001365107783559035</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0009842326403257412</v>
+        <v>0.05177946975104648</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.008955761681237741</v>
+        <v>0.01956474348631292</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00399679902249673</v>
+        <v>0.02977877697623924</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005448142280614977</v>
+        <v>0.0002000919999448158</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09794173469145315</v>
+        <v>0.001744229921961848</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01321724815465571</v>
+        <v>0.07278733307390876</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06108905121019205</v>
+        <v>0.08384165374569791</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.004429834043749197</v>
+        <v>0.003773051521005284</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1028484490454534</v>
+        <v>0.008489939868792462</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06951040199202581</v>
+        <v>0.01374708506312573</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02335689951934218</v>
+        <v>0.0003802699996402324</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02226675703496134</v>
+        <v>0.01197972683800406</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.003346918549005036</v>
+        <v>0.005943911119721553</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02063164081345599</v>
+        <v>0.008764043754354179</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001766886446653949</v>
+        <v>0.01430551489243909</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0002201339607008004</v>
+        <v>0.003321986295630286</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02498465060224971</v>
+        <v>0.02042693691727388</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01627520067478945</v>
+        <v>0.02699212482914953</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.001747376682191276</v>
+        <v>0.06817226526999345</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003447563326540138</v>
+        <v>0.0005205159983589947</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01038010973161294</v>
+        <v>0.02946915543505233</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01225811072087299</v>
+        <v>0.07608349760456753</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09056360462774662</v>
+        <v>0.01965321266244843</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1009682859835562</v>
+        <v>0.1768451825834513</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06406343957964926</v>
+        <v>0.07975679058534428</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04531809423178415</v>
+        <v>0.01644653823387653</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.09578087100856696</v>
+        <v>0.05344001756260792</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003810959973620231</v>
+        <v>0.009405951925883834</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0147365926660878</v>
+        <v>0.09718233942305093</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0002600859606973772</v>
+        <v>0.0008011319905005844</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.004444057673172517</v>
+        <v>0.01264853694542187</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.00754175243589401</v>
+        <v>0.0838251188020309</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0009427571104284619</v>
+        <v>0.0002001999995991992</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.07559975312684089</v>
+        <v>0.02467199833422063</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.003224888408675239</v>
+        <v>0.003850784775361508</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03076180073562122</v>
+        <v>0.1013627012055765</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.04232715226033372</v>
+        <v>0.01920021790754864</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.001544596550759634</v>
+        <v>0.009609707189891348</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01017331969355913</v>
+        <v>0.04643544169154205</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08228700447629664</v>
+        <v>0.08848839069063194</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8.003199357822132e-05</v>
+        <v>0.02517122915205758</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01667924188495742</v>
+        <v>0.07572244604622101</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1113159326278862</v>
+        <v>0.07298597078067195</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01238842243516242</v>
+        <v>0.002781655894420671</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005804258590194702</v>
+        <v>0.03812281484763957</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.006421900555481866</v>
+        <v>0.001226297602185752</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.005982916168658045</v>
+        <v>0.03845903532692255</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8.001599839727883e-05</v>
+        <v>0.008008454505922519</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.05372876950057579</v>
+        <v>0.1525036991213897</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08955923592030637</v>
+        <v>0.001403671922855539</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.06698883182249007</v>
+        <v>0.1148953178826319</v>
       </c>
     </row>
   </sheetData>
